--- a/data/L1.xlsx
+++ b/data/L1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10905"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11003"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olivier/SSDS/enseignement/UFR STAPS/Direction/Outils/Vérification heures IEAP/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olivier/SSDS/enseignement/UFR STAPS/Direction/Outils/celcatreport/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D185D2F9-19C6-2140-A151-C7E52EEA0913}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A941DD98-5E1A-7E46-B8D0-F268E14F7E11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="780" windowWidth="34200" windowHeight="19580" xr2:uid="{154AE90F-D41B-8B49-BA91-D855BEB6F170}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Code Apogée</t>
   </si>
@@ -135,6 +135,9 @@
   </si>
   <si>
     <t>Méthodologie du travail universitaire - Niveau 2</t>
+  </si>
+  <si>
+    <t>Groupes CM</t>
   </si>
 </sst>
 </file>
@@ -506,10 +509,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D425352-B3D2-6642-82B3-EC9BD51219AA}">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -520,7 +523,7 @@
     <col min="4" max="4" width="5.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -537,19 +540,22 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
       <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -566,19 +572,22 @@
         <v>36</v>
       </c>
       <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
         <v>18</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>16</v>
       </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
       <c r="I2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -595,19 +604,22 @@
         <v>36</v>
       </c>
       <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
         <v>18</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>16</v>
       </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
       <c r="I3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -624,19 +636,22 @@
         <v>8</v>
       </c>
       <c r="F4">
+        <v>3.5</v>
+      </c>
+      <c r="G4">
         <v>44</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>13</v>
       </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
       <c r="I4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -653,7 +668,7 @@
         <v>24</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -664,8 +679,11 @@
       <c r="I5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -682,19 +700,22 @@
         <v>0</v>
       </c>
       <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
         <v>10</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>16</v>
       </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
       <c r="I6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -711,19 +732,22 @@
         <v>6</v>
       </c>
       <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
         <v>10</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>16</v>
       </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
       <c r="I7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -740,19 +764,22 @@
         <v>8</v>
       </c>
       <c r="F8">
+        <v>3.5</v>
+      </c>
+      <c r="G8">
         <v>44</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>16</v>
       </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
       <c r="I8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -769,7 +796,7 @@
         <v>24</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -780,8 +807,11 @@
       <c r="I9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -798,19 +828,22 @@
         <v>36</v>
       </c>
       <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
         <v>18</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>13</v>
       </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
       <c r="I10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -827,19 +860,22 @@
         <v>36</v>
       </c>
       <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
         <v>18</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>13</v>
       </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
       <c r="I11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>29</v>
       </c>
@@ -856,19 +892,22 @@
         <v>0</v>
       </c>
       <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
         <v>10</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>13</v>
       </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
       <c r="I12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>31</v>
       </c>
@@ -885,20 +924,23 @@
         <v>6</v>
       </c>
       <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
         <v>10</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>13</v>
       </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
       <c r="I13">
         <v>0</v>
       </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I31">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J31">
     <sortCondition ref="B2:B31"/>
     <sortCondition ref="A2:A31"/>
   </sortState>
